--- a/graphs/accuracy_error_charts_ml_project.xlsx
+++ b/graphs/accuracy_error_charts_ml_project.xlsx
@@ -11,15 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
-    <t>Logistic Regression</t>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>LR</t>
   </si>
   <si>
     <t>SVC</t>
   </si>
   <si>
-    <t>Accuracy</t>
+    <t>Error</t>
   </si>
   <si>
     <t>Training set</t>
@@ -31,6 +34,9 @@
     <t>Validation set</t>
   </si>
   <si>
+    <t xml:space="preserve">Validation set </t>
+  </si>
+  <si>
     <t>Test set</t>
   </si>
   <si>
@@ -40,10 +46,7 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation set </t>
+    <t>üü</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Accuracy - Logistic Regression vs SVC</a:t>
+              <a:t>Accuracy - LR vs SVC</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -223,11 +226,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1119274191"/>
-        <c:axId val="1252017669"/>
+        <c:axId val="24190683"/>
+        <c:axId val="1841369692"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1119274191"/>
+        <c:axId val="24190683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -279,10 +282,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252017669"/>
+        <c:crossAx val="1841369692"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1252017669"/>
+        <c:axId val="1841369692"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,7 +360,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1119274191"/>
+        <c:crossAx val="24190683"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -407,7 +410,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Error Logistic Regression vs SVC</a:t>
+              <a:t>Error - LR vs SVC</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -423,7 +426,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabellenblatt1!$H$11</c:f>
+              <c:f>Tabellenblatt1!$K$4</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -438,12 +441,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Tabellenblatt1!$G$12:$G$14</c:f>
+              <c:f>Tabellenblatt1!$J$5:$J$7</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabellenblatt1!$H$12:$H$14</c:f>
+              <c:f>Tabellenblatt1!$K$5:$K$7</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -453,7 +456,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabellenblatt1!$I$11</c:f>
+              <c:f>Tabellenblatt1!$L$4</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -468,21 +471,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Tabellenblatt1!$G$12:$G$14</c:f>
+              <c:f>Tabellenblatt1!$J$5:$J$7</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabellenblatt1!$I$12:$I$14</c:f>
+              <c:f>Tabellenblatt1!$L$5:$L$7</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2145711971"/>
-        <c:axId val="1751101226"/>
+        <c:axId val="1308302922"/>
+        <c:axId val="244863993"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2145711971"/>
+        <c:axId val="1308302922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -534,10 +537,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1751101226"/>
+        <c:crossAx val="244863993"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1751101226"/>
+        <c:axId val="244863993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +615,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2145711971"/>
+        <c:crossAx val="1308302922"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -642,10 +645,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -667,10 +670,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -901,20 +904,32 @@
   </cols>
   <sheetData>
     <row r="4">
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" s="4">
         <v>0.930681818181818</v>
@@ -922,22 +937,40 @@
       <c r="I5" s="1">
         <v>0.9375</v>
       </c>
+      <c r="J5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.39420425315801</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1.28630667203355</v>
+      </c>
     </row>
     <row r="6">
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5">
         <v>9.30681818181818E14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" s="4">
         <v>0.913636363636363</v>
       </c>
       <c r="I6" s="1">
         <v>0.902272727272727</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2.98294520848784</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1.60738169515301</v>
       </c>
     </row>
     <row r="7">
@@ -946,7 +979,7 @@
         <v>9375.0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7" s="4">
         <v>0.875</v>
@@ -954,10 +987,19 @@
       <c r="I7" s="1">
         <v>0.871428571428571</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4.31741558628642</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.325</v>
+      </c>
     </row>
     <row r="8">
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6">
         <v>9.13636363636364E14</v>
@@ -975,13 +1017,10 @@
     </row>
     <row r="10">
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6">
         <v>875.0</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="7"/>
@@ -991,65 +1030,32 @@
       <c r="E11" s="6">
         <v>8.71428571428571E14</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="7"/>
     </row>
     <row r="12">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="G12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2.39420425315801</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.28630667203355</v>
-      </c>
       <c r="V12" s="2"/>
       <c r="W12" s="7"/>
     </row>
     <row r="13">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2.98294520848784</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1.60738169515301</v>
-      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="7"/>
     </row>
     <row r="14">
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="G14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="4">
-        <v>4.31741558628642</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.325</v>
-      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
     <row r="15">
       <c r="D15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6">
         <v>2.39420425315801E14</v>
@@ -1067,7 +1073,7 @@
     </row>
     <row r="17">
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17" s="6">
         <v>2.98294520848784E14</v>
@@ -1088,7 +1094,7 @@
         <v>9.30681818181818E14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19" s="8">
         <v>4.31741558628642E15</v>
@@ -1134,14 +1140,14 @@
     <row r="25">
       <c r="A25" s="3"/>
       <c r="D25" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="3"/>
       <c r="D26" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" s="5">
         <v>9.30681818181818E14</v>
@@ -1165,7 +1171,7 @@
         <v>2.39420425315801E14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E28" s="6">
         <v>9.13636363636364E14</v>
@@ -1185,13 +1191,16 @@
       <c r="G29" s="6">
         <v>9.02272727272727E14</v>
       </c>
+      <c r="J29" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6">
         <v>2.98294520848784E14</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E30" s="6">
         <v>875.0</v>
@@ -1230,14 +1239,14 @@
     </row>
     <row r="34">
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35">
       <c r="D35" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E35" s="6">
         <v>2.39420425315801E14</v>
@@ -1257,7 +1266,7 @@
     </row>
     <row r="37">
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E37" s="6">
         <v>2.98294520848784E14</v>
@@ -1280,7 +1289,7 @@
         <v>0.930681818181818</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39" s="8">
         <v>4.31741558628642E15</v>

--- a/graphs/accuracy_error_charts_ml_project.xlsx
+++ b/graphs/accuracy_error_charts_ml_project.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>Accuracy</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>0.3</t>
   </si>
   <si>
     <t>üü</t>
@@ -226,11 +229,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="24190683"/>
-        <c:axId val="1841369692"/>
+        <c:axId val="7616967"/>
+        <c:axId val="1413415853"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="24190683"/>
+        <c:axId val="7616967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -282,10 +285,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1841369692"/>
+        <c:crossAx val="1413415853"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1841369692"/>
+        <c:axId val="1413415853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +363,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24190683"/>
+        <c:crossAx val="7616967"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -481,11 +484,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1308302922"/>
-        <c:axId val="244863993"/>
+        <c:axId val="1712210587"/>
+        <c:axId val="992018579"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1308302922"/>
+        <c:axId val="1712210587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,10 +540,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244863993"/>
+        <c:crossAx val="992018579"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244863993"/>
+        <c:axId val="992018579"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +618,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1308302922"/>
+        <c:crossAx val="1712210587"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -934,8 +937,8 @@
       <c r="H5" s="4">
         <v>0.930681818181818</v>
       </c>
-      <c r="I5" s="1">
-        <v>0.9375</v>
+      <c r="I5" s="4">
+        <v>0.946590909090909</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>4</v>
@@ -944,7 +947,7 @@
         <v>2.39420425315801</v>
       </c>
       <c r="L5" s="4">
-        <v>1.28630667203355</v>
+        <v>0.180681818181818</v>
       </c>
     </row>
     <row r="6">
@@ -960,8 +963,8 @@
       <c r="H6" s="4">
         <v>0.913636363636363</v>
       </c>
-      <c r="I6" s="1">
-        <v>0.902272727272727</v>
+      <c r="I6" s="4">
+        <v>0.922727272727272</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>7</v>
@@ -970,7 +973,7 @@
         <v>2.98294520848784</v>
       </c>
       <c r="L6" s="4">
-        <v>1.60738169515301</v>
+        <v>0.204545454545454</v>
       </c>
     </row>
     <row r="7">
@@ -984,8 +987,8 @@
       <c r="H7" s="4">
         <v>0.875</v>
       </c>
-      <c r="I7" s="1">
-        <v>0.871428571428571</v>
+      <c r="I7" s="4">
+        <v>0.878571428571428</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>8</v>
@@ -994,7 +997,7 @@
         <v>4.31741558628642</v>
       </c>
       <c r="L7" s="4">
-        <v>0.325</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -1036,12 +1039,18 @@
     <row r="12">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
+      <c r="H12" s="4">
+        <v>9.46590909090909E15</v>
+      </c>
       <c r="V12" s="2"/>
       <c r="W12" s="7"/>
     </row>
     <row r="13">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="H13" s="4">
+        <v>9.22727272727272E15</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="7"/>
     </row>
@@ -1050,6 +1059,9 @@
         <v>3</v>
       </c>
       <c r="E14" s="3"/>
+      <c r="H14" s="4">
+        <v>8.78571428571428E15</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
@@ -1068,6 +1080,9 @@
       <c r="E16" s="6">
         <v>1.28630667203355E14</v>
       </c>
+      <c r="H16" s="4">
+        <v>1.80681818181818E16</v>
+      </c>
       <c r="V16" s="2"/>
       <c r="W16" s="3"/>
     </row>
@@ -1077,6 +1092,9 @@
       </c>
       <c r="E17" s="6">
         <v>2.98294520848784E14</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2.04545454545454E16</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="7"/>
@@ -1085,6 +1103,9 @@
       <c r="D18" s="3"/>
       <c r="E18" s="6">
         <v>1.60738169515301E14</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="V18" s="3"/>
       <c r="W18" s="7"/>
@@ -1192,7 +1213,7 @@
         <v>9.02272727272727E14</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
